--- a/tests/files/input-merged.xlsx
+++ b/tests/files/input-merged.xlsx
@@ -8,8 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="input-quality-no-hxl" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="input-quality-hxl" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="input-quality-hxl" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">Registro</t>
   </si>
@@ -47,7 +46,31 @@
     <t xml:space="preserve">Departamento/Provincia/Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Date</t>
+    <t xml:space="preserve">Dato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#sector+es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#subsector+es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#org+es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#targeted+f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#targeted+m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#adm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#date+reported</t>
   </si>
   <si>
     <t xml:space="preserve">001</t>
@@ -114,30 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amazonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#sector+es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#subsector+es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#org+es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#targeted+f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#targeted+m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#adm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#date+reported</t>
   </si>
 </sst>
 </file>
@@ -232,7 +231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,20 +240,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -334,22 +329,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.65"/>
@@ -385,324 +379,144 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="0" t="n">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="G6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.65"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tests/files/input-merged.xlsx
+++ b/tests/files/input-merged.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="input-quality-hxl" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Merged cells" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>

--- a/tests/files/input-merged.xlsx
+++ b/tests/files/input-merged.xlsx
@@ -34,10 +34,10 @@
     <t xml:space="preserve">Organización</t>
   </si>
   <si>
+    <t xml:space="preserve">Mujeres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mujeres</t>
   </si>
   <si>
     <t xml:space="preserve">País</t>
@@ -334,7 +334,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
